--- a/evaluations/MMLU_Anatomy/zeroshot-COT/gaokerena-r1.0/gao_experiment_no1.xlsx
+++ b/evaluations/MMLU_Anatomy/zeroshot-COT/gaokerena-r1.0/gao_experiment_no1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901D661C-7B22-48EE-A007-0807B67B4622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF2FC017-4F3F-4F9F-81AE-D1CC8A2F40A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="550">
   <si>
     <t>Question</t>
   </si>
@@ -119,9 +119,6 @@
    - [D] **رشد معیوب سینوس هوای فک بالا**: این گزینه به مشکلاتی در رشد سینوس‌های فکی اشاره دارد که ممکن است منجر به مشکلات استخوانی شود. اگرچه این می‌تواند بر ساختار فک تأثیر بگذارد، اما ارتباط آن با "صورت گود افتاده" مستقیم نیست.
 3. **انتخاب گزینه صحیح**: با توجه به توضیحات بالا، گزینه [B] ("فک بالای عقب رفته به دلیل عدم رشد طولی قاعده جمجمه") بهترین توضیح را برای "صورت گود افتاده" ارائه می‌دهد، زیرا به طور مستقیم با ساختار جمجمه و فک مرتبط است و می‌تواند منجر به گود افتادن صورت شود.
 بنابراین، پاسخ صحیح **(B)** است.</t>
-  </si>
-  <si>
-    <t>A1</t>
   </si>
   <si>
     <t>کدام یک از موارد زیر ساختار جمع آوری ادرار در بدن را بهتر توصیف می کند؟</t>
@@ -221,9 +218,6 @@
 با توجه به توضیحات بالا، گزینه **[B] گلومرول** بهترین توصیف را برای مجموعه‌ای از مویرگ‌های خونی موجود در هر نفرون کلیه ارائه می‌دهد.</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>بیماران دچار شکستگی گردن با آسیب به نخاع در سطح مهره ششم گردنی :</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
 3. **استئوبلاست‌ها (گزینه C)**: استئوبلاست‌ها سلول‌های سیستم ایمنی هستند که در استخوان‌ها تولید می‌شوند و به دفاع در برابر عفونت‌ها کمک می‌کنند. اگرچه آنها در مقابله با باکتری‌ها نقش دارند، اما نقش اصلی آنها در حفظ سلامت استخوان‌ها است.
 4. **بزاق (گزینه D)**: بزاق حاوی ترکیبات ضد میکروبی مانند لیزین و لاکتوفیرین است که می‌تواند باکتری‌ها را خنثی کند. همچنین، بزاق حاوی آنزیم‌هایی است که با تجزیه پلی ساکاریدهای سطح باکتری‌ها، آنها را ضعیف می‌کند.
 در نهایت، با در نظر گرفتن همه این موارد، **گزینه B (غشاهای مخاطی)** به‌طور کامل‌تری مکانیسم دفاعی بدن انسان را در برابر باکتری‌های محیطی توصیف می‌کند، زیرا هم با تولید مخاط باکتری‌ها را به دام می‌اندازد و هم حاوی آنزیم‌هایی است که آنها را تخریب می‌کند.</t>
-  </si>
-  <si>
-    <t>A3</t>
   </si>
   <si>
     <t>زائده های کامی چه زمانی شروع به جوش خوردن می کنند؟</t>
@@ -480,9 +471,6 @@
    - گزینه [C] و [D] به طور کامل با توصیف معاینه همخوانی ندارند، زیرا هر دو پیشنهاد می‌کنند که یک عضله به طور کامل فلج است.
 **پاسخ:**
 با توجه به تجزیه و تحلیل بالا، گزینه صحیح **[B] : عضله کریکوتیروئید هنوز فعال است اما اینتراریتنوئیدها ضعیف هستند.** است. این گزینه به درستی وضعیت مشاهده‌شده در معاینه لارنگوسکوپی را توضیح می‌دهد که نشان‌دهنده آسیب عصبی در عضلات کنترل‌کننده تارهای صوتی است.</t>
-  </si>
-  <si>
-    <t>A4</t>
   </si>
   <si>
     <t>کدام یک از عبارات زیر در مورد رشد فک پایین صحیح است؟</t>
@@ -601,9 +589,6 @@
 بنابراین، پاسخ نهایی: [D]</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>خون اکسیژن دار توسط کدام یک از ساختارهای زیر به قلب منتقل می شود؟</t>
   </si>
   <si>
@@ -658,9 +643,6 @@
 3. **نای (گزینه C)**: نای لوله‌ای است که هوا را از بینی یا دهان به ریه‌ها می‌رساند. نای نقش حیاتی در انتقال هوا به ریه‌ها دارد.
 4. **پانکراس (گزینه D)**: پانکراس اندامی است که در گوارش و تنظیم قند خون نقش دارد. پانکراس در انتقال هوا دخالتی ندارد.
 بنابراین، بر اساس اطلاعات فوق، گزینه صحیح **C: نای** است که اجازه می‌دهد هوا به ریه‌ها منتقل شود.</t>
-  </si>
-  <si>
-    <t>A6</t>
   </si>
   <si>
     <t>گره سینوسی دهلیزی در کجا قرار دارد؟</t>
@@ -694,9 +676,6 @@
 **بنابراین، پاسخ صحیح [C] در دیواره بالایی دهلیز راست است.**</t>
   </si>
   <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>در رابطه با دنده، عصب بین دنده ای مربوطه در کجا قرار دارد؟</t>
   </si>
   <si>
@@ -817,9 +796,6 @@
     * **[D] می تواند در بیماران مبتلا به آکرومگالی دوباره فعال شود:** آکرومگالی اختلالی است که باعث رشد غیرطبیعی استخوان ها می شود و ارتباط مستقیمی با مفصل اسفنو-اکسیپیتال ندارد.
 **پاسخ:**
 با توجه به تحلیل بالا، پاسخ صحیح **گزینه [B] بر موقعیت اسکلت صورت تأثیر می گذارد**  است.</t>
-  </si>
-  <si>
-    <t>A8</t>
   </si>
   <si>
     <t>کدام یک از مواد زیر به مقدار بیشتری در هوای بازدم یافت می شود؟</t>
@@ -885,9 +861,6 @@
 با توجه به توضیحات بالا، گزینه **C (نفرولیتیازیس)** مشخصه اصلی وجود سنگ کلیه (کلیوی)  است.</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>ممکن است نبض در صورت بیمار در جایی که .... احساس شود</t>
   </si>
   <si>
@@ -947,9 +920,6 @@
 بنابراین، پاسخ صحیح **گزینه C (طحال)** است.</t>
   </si>
   <si>
-    <t>Ax</t>
-  </si>
-  <si>
     <t>کدام عبارت در مورد گره دهلیزی بطنی درست است؟</t>
   </si>
   <si>
@@ -1004,9 +974,6 @@
 3. **پرونیشن (Pronation):** پرونیشن به چرخش یا تغییر جهت سطوح مفاصل به سمت داخل یا پایین اشاره دارد، که معمولاً در مچ دست و شانه رخ می‌دهد. این حرکت با خم کردن ساعد به سمت بدن متفاوت است.
 4. **مقایسه با تعریف:** با توجه به اینکه تعریف خم شدن ساعد به سمت بدن با فلکشن مطابقت دارد، گزینه [C] : فلکشن، پاسخ صحیح است.
 **پاسخ:** پس از تحلیل دقیق، گزینه [C] : فلکشن به درستی حرکت خم شدن ساعد به سمت بدن را توصیف می‌کند.</t>
-  </si>
-  <si>
-    <t>B1</t>
   </si>
   <si>
     <t>در مرحله حلقی بلع از ورود غذا به حنجره توسط ... جلوگیری می شود.</t>
@@ -1069,9 +1036,6 @@
 [B] دوازدهه</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>در کدام یک از وضعیت های زیر بیمار به صورت رو به پایین دراز می کشد؟</t>
   </si>
   <si>
@@ -1152,9 +1116,6 @@
 - **[D] : توسط عمل عضله کشنده کام نرم بسته می‌شود.** این گزینه نادرست است. در حالی که عضلات کشنده کام نرم نقش دارند، بسته شدن شیپور استاش عمدتاً به دلیل تغییرات فشار هوا و عملکرد عضله levator veli palatini است، نه به دلیل عضلات کشنده.
 **پاسخ نهایی: [C]**
 شیپور استاش توسط عضله levator veli palatini باز و بسته می‌شود که در کنترل کام نرم دخیل است.</t>
-  </si>
-  <si>
-    <t>B3</t>
   </si>
   <si>
     <t>کدام یک از اندام های زیر لنفوئیدی است که مخزن گلبول های قرمز است و ارگانیسم ها را از خون تصفیه می کند؟</t>
@@ -1187,9 +1148,6 @@
 **پاسخ:** گزینه D (طحال)</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>کدام یک از حفره های زیر توسط دیافراگم جدا می شود؟</t>
   </si>
   <si>
@@ -1215,9 +1173,6 @@
 - [C] سینه‌ای و شکمی: دیافراگم بین قفسه سینه (سینه‌ای) و شکم (شکمی) قرار دارد و این دو را از هم جدا می‌کند.
 - [D] پریکارد و جنب: پریکارد لایه‌ای است که قلب را می‌پوشاند و جنب بخشی از دیواره قفسه سینه است. دیافراگم این دو را جدا نمی‌کند.
 بنابراین، پاسخ صحیح گزینه [C] است: **سینه‌ای و شکمی**.</t>
-  </si>
-  <si>
-    <t>B5</t>
   </si>
   <si>
     <t>دیواره برونشیول ها حاوی چیست؟</t>
@@ -1276,9 +1231,6 @@
 بنابراین، بر اساس عملکردهای ذکر شده، **گزینه (C) کبد** تنها اندامی است که همه ویژگی‌های مورد نظر پرسش را برآورده می‌کند. کبد بیلی روبین را از خون خارج می‌کند، پروتئین‌های پلاسما را تولید می‌کند و در سنتز پروترومبین و فیبرینوژن نقش دارد.</t>
   </si>
   <si>
-    <t>B6</t>
-  </si>
-  <si>
     <t>مشخصه کدام یک از شرایط زیر نارسایی اسفنکتر مری است؟</t>
   </si>
   <si>
@@ -1304,9 +1256,6 @@
 [C] **بیماری بازگشت اسید به مری (GERD)**: این بیماری دقیقاً به نارسایی اسفنکتر مری ارتباط دارد. ضعف یا ناکارآمدی اسفنکتر مری باعث می‌شود که اسید معده به مری بازگردد، که علائمی مانند سوزش سر دل، درد سینه و التهاب مری ایجاد می‌کند.
 [D] **تنگی پیلور**: تنگی پیلور به تنگی مبدا معده و پیلور (بخشی از مری نزدیک به معده) اشاره دارد. این وضعیت می‌تواند جریان غذا از مری به معده را کند کند، اما به طور مستقیم نارسایی اسفنکتر مری را توضیح نمی‌دهد.
 بنابراین، با توجه به اینکه نارسایی اسفنکتر مری مستقیماً با بیماری بازگشت اسید به مری (GERD) مرتبط است، پاسخ صحیح گزینه [C] است.</t>
-  </si>
-  <si>
-    <t>B7</t>
   </si>
   <si>
     <t>ماهیچه های کام نرم توسط شاخه هایی از... عصب دهی می شوند</t>
@@ -1491,9 +1440,6 @@
 بنابراین، پاسخ نهایی: **[B] : ساق پا**</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
     <t>کدام سلول های خون هسته ندارند؟</t>
   </si>
   <si>
@@ -1524,9 +1470,6 @@
 بنابراین، پاسخ صحیح **[C] اریتروسیت** است.</t>
   </si>
   <si>
-    <t>B9</t>
-  </si>
-  <si>
     <t>درز تاجی .... را به هم متصل می کند</t>
   </si>
   <si>
@@ -1582,9 +1525,6 @@
 با توجه به این زنجیره افکار، لمس کردن ساختارها به ترتیب زیر است:
 [C] : استخوان هیوئید، غضروف تیروئید، غضروف کریکوئید.
 پس پاسخ صحیح گزینه **C** است.</t>
-  </si>
-  <si>
-    <t>Bx</t>
   </si>
   <si>
     <t>کدام یک از ساختارهای استخوانی زیر در بیمار زنده قابل لمس است؟</t>
@@ -1641,9 +1581,6 @@
    - **تنه‌های سمپاتیک (C):** این تنه‌های عصبی در تنظیم پاسخ‌های سمپاتیک بدن نقش دارند، اما به طور مستقیم مری را کنترل نمی‌کنند.
    - **اعصاب واگ (D):** اعصاب واگ یکی از مهم‌ترین شبکه‌های عصبی در دستگاه گوارش هستند و مری را کنترل می‌کنند. آنها ماهیچه‌های مری را منظم می‌کنند تا غذا را به سمت معده هدایت کند.
 4. **نتیجه‌گیری:** بر اساس زنجیره افکار بالا، گزینه صحیح **[D] اعصاب واگ** است. اعصاب واگ به طور مستقیم مری را همراهی می‌کنند و در عبور آن از دیافراگم از طریق حفره دیافراگمی مری نقش کلیدی دارند.</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
   <si>
     <t>کدام دنباله گردش خون سیستمیک را توصیف می کند؟</t>
@@ -1823,9 +1760,6 @@
 [C] : پریستالسیس (حرکت موجیِ کرم وار در روده)</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر نقطه ای است که در آن یک تکانه از یک نورون به نورون دیگر منتقل می شود؟</t>
   </si>
   <si>
@@ -1856,9 +1790,6 @@
 با توجه به این بررسی، گزینه درست **[D] سیناپس** است.</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>کدام یک از عضلات زیر باعث بالا رفتن فک پایین می شود؟</t>
   </si>
   <si>
@@ -1885,9 +1816,6 @@
 با توجه به این توضیحات، عضله‌ای که باعث بالا رفتن فک پایین می‌شود، **تریگوئید داخلی ([D])** است. بنابراین، پاسخ صحیح گزینه **D** است.</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر یکی از اعضای کمکی دستگاه گوارش است که مسئول ترشح انسولین است؟</t>
   </si>
   <si>
@@ -1912,9 +1840,6 @@
 3. **کبد (گزینه C)** - کبد نقش مهمی در متابولیسم گلوکز و ترشح برخی هورمون‌ها دارد، اما مسئول ترشح انسولین نیست. انسولین توسط پانکراس تولید می‌شود.
 4. **پانکراس (گزینه D)** - پانکراس غده‌ای است که انسولین و آنزیم‌های گوارشی را ترشح می‌کند. انسولین هورمونی است که در تنظیم سطح گلوکز خون نقش حیاتی دارد.
 بنابراین، با توجه به توضیحات بالا، **گزینه D: پانکراس** یکی از اعضای کمکی دستگاه گوارش است که مسئول ترشح انسولین است.</t>
-  </si>
-  <si>
-    <t>C5</t>
   </si>
   <si>
     <t>یک تومور بدخیم به عصب گلوفارنکس بیمار آسیب رسانده. او چه چیزی را تجربه خواهد کرد؟</t>
@@ -2003,9 +1928,6 @@
 بنابراین، پاسخ صحیح گزینه [C] است: **شریان‌های ریوی**.</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>یک بیمار به گردنش ضربه چاقو خورده است. به آسیب عصب جانبی در مثلث خلفی مشکوک هستید. شما با چه درخواستی از بیمار عملکرد عصبی او را آزمایش می کنید؟</t>
   </si>
   <si>
@@ -2035,9 +1957,6 @@
 پاسخ نهایی: [C]</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>کدام یک از عضلات زیر از اولین قوس شاخه ای مشتق شده اند؟</t>
   </si>
   <si>
@@ -2093,9 +2012,6 @@
    - **گزینه [C]:** در وسط کشاله ران - این بخش از بدن از نظر آناتومی ارتباطی با کاروتید ندارد.
    - **گزینه [D]:** در قسمت قدامی گردن - این گزینه به درستی محل قرارگیری نبض کاروتید را توصیف می‌کند.
 3. **نتیجه‌گیری:** بنابراین، گزینه **D** بهترین توصیف را برای محلی که می‌توان نبض کاروتید را یافت، ارائه می‌دهد.</t>
-  </si>
-  <si>
-    <t>C8</t>
   </si>
   <si>
     <t>در ساقه مغز، مسیرهای مربوط به :</t>
@@ -2236,9 +2152,6 @@
 بنابراین، پاسخ صحیح **گزینه [A] : استیل کولین** می‌باشد.</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
     <t>در نخاع، اجسام سلولی نورون حرکتی دردرون ... قرار دارند</t>
   </si>
   <si>
@@ -2347,9 +2260,6 @@
 با توجه به توضیحات فوق، گزینه **C** (آتروفی) بهترین توصیف برای علائمی است که ماهیچه‌های مچ دست پس از حدود 6 ماه بدون بازسازی عصب حرکتی محیطی نشان می‌دهند.</t>
   </si>
   <si>
-    <t>Cx</t>
-  </si>
-  <si>
     <t>یک بیمار دچار CVA در ناحیه کپسول داخلی سمت چپ می شود که نورون های حرکتی را به پای راست می رساند. پای بیمار نمایان ...خواهد شد</t>
   </si>
   <si>
@@ -2408,9 +2318,6 @@
 با توجه به نقاط ذکر شده، **گزینه [A] صحیح است: ریه راست زیرا نایژه اصلی راست پهن تر و عمودی تر از سمت چپ است.**</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>کلسیم، پتاسیم و سدیم در کدام یک از موارد زیر طبقه بندی می شوند؟</t>
   </si>
   <si>
@@ -2437,9 +2344,6 @@
    - **الکترولیت‌ها (C)**: الکترولیت‌ها یون‌هایی هستند که می‌توانند در محلول‌ها یونیزه شوند و شارژ الکتریکی حمل کنند. هم کلسیم، هم پتاسیم و هم سدیم الکترولیت‌اند.
    - **استروژن‌ها (D)**: استروژن‌ها هورمون‌های استروئیدی هستند که در تنظیم چرخه قاعدگی و ویژگی‌های جنسی زنانه نقش دارند. این عناصر شیمیایی نیستند.
 3. **انتخاب گزینه صحیح**: با توجه به اینکه کلسیم، پتاسیم و سدیم همگی الکترولیت‌ها هستند، گزینه صحیح **[C] : الکترولیت‌ها** است.</t>
-  </si>
-  <si>
-    <t>D2</t>
   </si>
   <si>
     <t>نورآدرنالین ناقل عصبی بین کدام یک از دو ساختار زیر است؟</t>
@@ -2501,9 +2405,6 @@
 بنابراین، غدد مولد مخاط در هر طرف دهانه واژن، غدد بارتولین هستند.</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>در صورت نیاز به باز شدن اضطراری در راه هوایی، غشای کریکوتیروئید باید.... فورا سوراخ شود</t>
   </si>
   <si>
@@ -2529,9 +2430,6 @@
 3. **هدف از این عمل، باز کردن یا گسترش** تنگه تیروئید (تنگی پایین راه هوایی) است تا راه هوایی به طور کامل باز شود و تنفس تسهیل گردد.
 4.**از آنجایی که غشای کریکوتیروئید به غضروف تیروئید متصل است،** برای باز کردن اضطراری راه هوایی، باید **پایین تر از غضروف تیروئید** قرار بگیرد، 
 **بنابراین پاسخ صحیح [B] پایین تر از غضروف تیروئید است**.</t>
-  </si>
-  <si>
-    <t>D4</t>
   </si>
   <si>
     <t>مایع مغزی نخاعی در اطراف مغز بین....گردش می کند</t>
@@ -2716,9 +2614,6 @@
 بر اساس این تحلیل، گزینه صحیح **[C] عضلات لب پایین** است. عصب هفتم جمجمه‌ای (عصب وجهی) مسئول عصب‌دهی به عضلات لب پایین و سایر بخش‌های صورت است.</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
     <t>کدام یک از سینوس های پارانازال زیر به داخل میاتوس باز می شود؟</t>
   </si>
   <si>
@@ -2774,9 +2669,6 @@
    - [D] **ملانین**: ملانین یک رنگدانه است که توسط مخلوط‌کننده‌های ملانوسیت‌ها تولید می‌شود و عمدتاً در اپیدرم (لایه سطحی پوست) و چشم یافت می‌شود.
 3. **انتخاب پاسخ**: با توجه به توضیحات بالا، تنها گزینه‌ای که یک پروتئین ساختاری فیبری است و در درم یافت می‌شود، **کلاژن** ([A]) است.
 بنابراین، پاسخ صحیح گزینه [A] (کلاژن) است.</t>
-  </si>
-  <si>
-    <t>D6</t>
   </si>
   <si>
     <t>بالا آمدن قفسه های کام به دلیل اثر....است</t>
@@ -2807,9 +2699,6 @@
 **4. [D] ترکیبی از این سه فرآیند:**
 با توجه به بررسی‌های فوق، به نظر می‌رسد که بالاترین احتمال در توضیح بالا آمدن قفسه‌های کام، ترکیبی از عوامل [B] و شاید تا حدی [A] باشد. تغییرات در خمش مغز در دوران رشد، به ویژه در کودکان، می‌تواند منجر به بالا آمدن قفسه‌های کام شود. همچنین، نزول زبان (گزینه [A]) ممکن است در برخی موارد مرتبط باشد، اما به تنهایی توضیح کاملی ارائه نمی‌دهد.
 بنابراین، پاسخ بهینه **[D] ترکیبی از این سه فرآیند** است. بالا آمدن قفسه‌های کام می‌تواند نتیجه تعامل بین تغییرات ساختاری مغز در حال رشد و همچنین تغییرات عضلانی و استخوانی مرتبط با آن باشد، که در برخی موارد ممکن است با نزول زبان نیز همراه باشد.</t>
-  </si>
-  <si>
-    <t>D7</t>
   </si>
   <si>
     <t>احتمال تجمع پلاک های دندانی در دهان بیمارانی که بهداشت دهان و دندان ضعیفی دارند، روی کدام سطوح دندان است؟</t>
@@ -3229,9 +3118,6 @@
 **پاسخ:**  بنابراین، پاسخ صحیح **گزینه A** است.</t>
   </si>
   <si>
-    <t>D8</t>
-  </si>
-  <si>
     <t>سر دنده ششم با... مفصل می شود</t>
   </si>
   <si>
@@ -3285,9 +3171,6 @@
 3. **طحال (C)**: طحال در داخل حفره شکمی و زیر دیافراگم قرار دارد، بنابراین این گزینه با پرسش مطابقت دارد.
 4. **پانکراس (D)**: پانکراس در پشت دوازدهه و به سمت داخل حفره شکمی قرار دارد، اما نه در زیر دیافراگم.
 با توجه به این تحلیل، پاسخ صحیح گزینه **(C) : طحال** است.</t>
-  </si>
-  <si>
-    <t>D9</t>
   </si>
   <si>
     <t>پایانه های عصبی حس عمقی در مفاصل سینوویال در داخل چه چیزی قرار دارند؟</t>
@@ -3347,9 +3230,6 @@
 بنابراین، با توجه به توضیحات فوق، پاسخ صحیح گزینه [D] تنفس است. قفسه سینه به عنوان یک واحد ساختاری، عملکرد اصلی خود را در تسهیل فرآیند تنفس ایفا می‌کند.</t>
   </si>
   <si>
-    <t>Dx</t>
-  </si>
-  <si>
     <t>بیمار پس از ضربه به سر بستری می شود و به سرعت در کما فرو می رود. اسکن ام آر آی خونریزی خارج از سخت شامه را نشان می دهد، زیرا خون خارج شده بین ... تشخیص داده می شود.</t>
   </si>
   <si>
@@ -3461,9 +3341,6 @@
 بنابراین، با توجه به تعریف پرسش و بررسی گزینه‌ها، پاسخ صحیح **گزینه D: نارکولپسی** است.</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر اجازه تبادل گاز در ریه ها را می دهد؟</t>
   </si>
   <si>
@@ -3541,9 +3418,6 @@
 [C] **تخمدان:** تخمدان‌ها اندام‌های تولیدکننده تخمک در زنان هستند. اگرچه تخمک‌ها در تخمدان‌ها تولید و آزاد می‌شوند، اما لقاح واقعی در لوله‌های فالوپ اتفاق می‌افتد، نه در خود تخمدان.
 [D] **رحم:** رحم یک اندام عضلانی در دستگاه تناسلی زنانه است که جنین در آن رشد می‌کند. اگرچه رحم نقش مهمی در بارداری و حفظ جنین دارد، اما محل لقاح تخمک نیست.
 بنابراین، با توجه به توضیحات بالا، پاسخ صحیح گزینه **[B] لوله فالوپ** است. لقاح تخمک توسط اسپرم در لوله‌های فالوپ اتفاق می‌افتد، که محل اختصاصی و ضروری برای این فرآیند بیولوژیکی مهم است.</t>
-  </si>
-  <si>
-    <t>E2</t>
   </si>
   <si>
     <t>اکتودرم ایجاد می کند</t>
@@ -3683,9 +3557,6 @@
 بنابراین، **گزینه C: ایلئوم** بخشی از روده کوچک است.</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
     <t>در طول بلوک عصب آلوئولار تحتانی، سوزن به طور ایده آل عبور می کند</t>
   </si>
   <si>
@@ -3713,9 +3584,6 @@
 بنابراین، پاسخ به پرسش **گزینه [B]** است.</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
     <t>بیماران مبتلا به کدام یک از بیماری های زیر با تزریق ویتامین B-12 درمان می شوند؟</t>
   </si>
   <si>
@@ -3740,9 +3608,6 @@
 3. **کم خونی خطرناک (گزینه C)**: کم خونی خطرناک می‌تواند ناشی از کمبود ویتامین B-12 باشد. ویتامین B-12 برای تولید گلبول‌های قرمز خون ضروری است. تزریق ویتامین B-12 یکی از روش‌های درمان کم خونی ناشی از کمبود این ویتامین است.
 4. **بیماری گریوز (گزینه D)**: بیماری گریوز یک اختلال خودایمنی است که با داروهایی مانند استروئیدهای دستگاهی، داروهای مهارکننده ایمونورسپتور یا پلاسماگزری (خون‌گیری و جایگزینی پلاسما) درمان می‌شود. ویتامین B-12 در درمان بیماری گریوز نقش ندارد.
 با توجه به توضیحات بالا، تنها گزینه صحیح **گزینه C: کم خونی خطرناک** است که بیماران مبتلا به آن با تزریق ویتامین B-12 درمان می‌شوند.</t>
-  </si>
-  <si>
-    <t>E5</t>
   </si>
   <si>
     <t>کدام یک از استخوان های زیر دارای فرآیندی است که به استخوان زیگوماتیک متصل می شود و قوس زیگوماتیک را تشکیل می دهد؟</t>
@@ -3773,9 +3638,6 @@
 **پاسخ:** [B]</t>
   </si>
   <si>
-    <t>E6</t>
-  </si>
-  <si>
     <t>آکسون های پیش گانگلیونی پاراسمپاتیک با چه چیزی از CNS خارج می شوند؟</t>
   </si>
   <si>
@@ -3802,9 +3664,6 @@
 3. **اعصاب نخاعی کمری (C):** آکسون‌های پاراسمپاتیک در ستون فقرات کمری وجود دارند، اما خروج آن‌ها از CNS در بخش‌های بالایی مغز و نخاع اتفاق می‌افتد.
 4. **اعصاب نخاعی خاجی (D):** اعصاب خاجی، بخشی از سیستم عصبی خودمختار هستند و آکسون‌های پاراسمپاتیک از این اعصاب خارج می‌شوند تا به غدد و عضلات در قفسه سینه و شکم متصل شوند.
 بنابراین، بر اساس درک ما از مسیر آکسون‌های پاراسمپاتیک، پاسخ صحیح گزینه **D: اعصاب نخاعی خاجی** است.</t>
-  </si>
-  <si>
-    <t>E7</t>
   </si>
   <si>
     <t>بیمار با آسیب به زنجیره سمپاتیک گردنی خود چه علائم و نشانه هایی را نشان می دهد؟</t>
@@ -3839,9 +3698,6 @@
 با توجه به اینکه پرسش درخواست علائم *محدود* ناشی از آسیب زنجیره سمپاتیک گردنی را دارد، گزینه‌های A و B که تنها به نشانه‌های اساسی پاسخ سمپاتیک اشاره دارند، منطقی‌تر به نظر می‌رسند. بنابراین، پاسخ صحیح احتمالاً **گزینه B** است.</t>
   </si>
   <si>
-    <t>E8</t>
-  </si>
-  <si>
     <t>کدام یک از اعصاب جمجمه ای زیر مربوط به حس بویایی است؟</t>
   </si>
   <si>
@@ -3870,9 +3726,6 @@
 با توجه به توضیحات بالا، تنها گزینه درست که مربوط به حس بویایی است، **گزینه C: بویایی** می‌باشد.</t>
   </si>
   <si>
-    <t>E9</t>
-  </si>
-  <si>
     <t>مراکز حیاتی در ساقه مغز کجا قرار دارند؟</t>
   </si>
   <si>
@@ -3898,9 +3751,6 @@
 - [C] بصل النخاع: بصل النخاع بخش مهمی از ساقه مغز است که وظایف مختلفی از جمله کنترل تعادل، هماهنگی حرکات، تنفس و واکنش‌های غریزی را بر عهده دارد.
 - [D] رفلکس گگ (بازتاب عق زنی): این گزینه به یک واکنش عصبی خاص اشاره دارد و نه به یک مرکز حیاتی ساقه مغز.
 با توجه به اینکه بصل النخاع به طور مستقیم وظایف حیاتی مانند تنظیم تنفس، ضربان قلب و واکنش‌های غریزی را انجام می‌دهد، پاسخ صحیح گزینه [C] بصل النخاع است.</t>
-  </si>
-  <si>
-    <t>Ex</t>
   </si>
   <si>
     <t>بزاق حاوی آنزیمی است که بر روی کدام یک از مواد مغذی زیر اثر می گذارد؟</t>
@@ -4011,9 +3861,6 @@
    - [C] پینه آل: پینه آل‌ها غدد کوچک چربی هستند که در پوست موجودند و هورمون‌هایی مانند آندروژن را تولید می‌کنند.
    - [D] هیپوفیز: هیپوفیز در پایه مغز واقع شده و هورمون‌های زیادی را ترشح می‌کند که بر عملکرد سایر غدد تأثیر می‌گذارند.
 3. **انتخاب پاسخ:** با توجه به اینکه هیپوفیز غده‌ای است که در تنظیم عملکرد سایر غدد نقش اصلی را دارد، پاسخ صحیح **گزینه D: هیپوفیز** است.</t>
-  </si>
-  <si>
-    <t>F1</t>
   </si>
   <si>
     <t>از دست دادن حس جسمانی در دو سوم قدامی زبان نشان دهنده آسیب به زبان است.</t>
@@ -4471,15 +4318,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4519,7 +4366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4538,2818 +4385,2665 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.6">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="409.6">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="409.6">
+    </row>
+    <row r="20" spans="1:6" ht="409.6">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>93</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>94</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="B23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E23" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>98</v>
       </c>
-      <c r="E22" t="s">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="E24" t="s">
         <v>101</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>102</v>
       </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B25" t="s">
         <v>103</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>104</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>106</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B26" t="s">
         <v>107</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
         <v>108</v>
       </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="E26" t="s">
         <v>109</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>110</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
         <v>112</v>
       </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="E27" t="s">
         <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" t="s">
-        <v>121</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
         <v>131</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
         <v>132</v>
       </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E32" t="s">
         <v>133</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>134</v>
       </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="B33" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" t="s">
-        <v>146</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" t="s">
         <v>181</v>
-      </c>
-      <c r="B41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" t="s">
-        <v>198</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="409.6">
+    <row r="46" spans="1:6" ht="409.6">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="G48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E57" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="409.6">
+    <row r="58" spans="1:6" ht="409.6">
       <c r="A58" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E61" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="E62" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B67" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="409.6">
+    </row>
+    <row r="69" spans="1:6" ht="409.6">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B69" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="409.6">
+    <row r="71" spans="1:6" ht="409.6">
       <c r="A71" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="E72" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="B73" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
       </c>
-      <c r="G73" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B74" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="E74" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="E76" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
       </c>
-      <c r="G79" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="E80" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="E82" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
       </c>
-      <c r="G82" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="B83" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="E83" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
       </c>
-      <c r="G83" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="E84" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="B85" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="E85" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B86" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="E86" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="E87" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="B89" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="E89" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="B90" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="E90" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="F90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="E91" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
       </c>
-      <c r="G91" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="E92" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="B93" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="E93" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="E94" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="F94" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="B95" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="E95" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="E97" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="F97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="B98" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="B99" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="E99" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="F99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="B100" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="E100" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="B101" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="E101" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="B102" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="E102" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="B103" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="E103" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="B104" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="E104" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="B105" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="E105" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="B106" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E106" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="F106" t="s">
         <v>8</v>
       </c>
-      <c r="G106" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B107" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="E107" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="F107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="B108" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="E108" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="B109" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="E109" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="F109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="B110" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="E110" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="B111" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="E111" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="B112" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="E112" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="B113" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="E113" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="B114" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="E114" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="B115" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="E115" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="B116" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="E116" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="B117" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="E117" t="s">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
       </c>
-      <c r="G117" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="B118" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="E118" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="B119" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="E119" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="B120" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
       <c r="E120" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="B121" t="s">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="E121" t="s">
-        <v>531</v>
+        <v>489</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="B122" t="s">
-        <v>533</v>
+        <v>491</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>534</v>
+        <v>492</v>
       </c>
       <c r="E122" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="B123" t="s">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="E123" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
       </c>
-      <c r="G123" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="B124" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="E124" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="B125" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="E125" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
       </c>
-      <c r="G125" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="B126" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="E126" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="B127" t="s">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="E127" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
       </c>
-      <c r="G127" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="B128" t="s">
-        <v>563</v>
+        <v>515</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="E128" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="B129" t="s">
-        <v>568</v>
+        <v>519</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="E129" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="B130" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="E130" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="B131" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="E131" t="s">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="B132" t="s">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="E132" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="B133" t="s">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>586</v>
+        <v>536</v>
       </c>
       <c r="E133" t="s">
-        <v>587</v>
+        <v>537</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="B134" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="E134" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>593</v>
+        <v>542</v>
       </c>
       <c r="B135" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
       <c r="E135" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="F135" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="B136" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>599</v>
+        <v>548</v>
       </c>
       <c r="E136" t="s">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
